--- a/病毒走势.xlsx
+++ b/病毒走势.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>全国确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,6 +177,9 @@
   <si>
     <t>2月24日</t>
   </si>
+  <si>
+    <t>2月25日</t>
+  </si>
 </sst>
 </file>
 
@@ -254,11 +257,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -520,6 +519,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -672,9 +683,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AK$2</c:f>
+              <c:f>Sheet1!$B$2:$AL$2</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -782,16 +793,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AK$3</c:f>
+              <c:f>Sheet1!$B$3:$AL$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -896,6 +910,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,9 +958,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AK$2</c:f>
+              <c:f>Sheet1!$B$2:$AL$2</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1051,16 +1068,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AK$4</c:f>
+              <c:f>Sheet1!$B$4:$AL$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1168,6 +1188,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,9 +1236,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AK$2</c:f>
+              <c:f>Sheet1!$B$2:$AL$2</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1323,16 +1346,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AK$5</c:f>
+              <c:f>Sheet1!$B$5:$AL$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
@@ -1425,6 +1451,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-789</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,12 +1522,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AK$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1606,6 +1635,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1615,13 +1647,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AK$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AL$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1726,6 +1758,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>52</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1782,12 +1817,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AK$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1895,6 +1930,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1904,13 +1942,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$AK$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$AL$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="3">
                         <c:v>6</c:v>
                       </c:pt>
@@ -2009,6 +2047,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2589</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2422</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2350,9 +2391,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AK$9</c:f>
+              <c:f>Sheet1!$B$9:$AL$9</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2460,16 +2501,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AK$10</c:f>
+              <c:f>Sheet1!$B$10:$AL$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -2577,6 +2621,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,9 +2669,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AK$9</c:f>
+              <c:f>Sheet1!$B$9:$AL$9</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2732,16 +2779,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AK$11</c:f>
+              <c:f>Sheet1!$B$11:$AL$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -2849,6 +2899,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>47672</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2894,9 +2947,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AK$9</c:f>
+              <c:f>Sheet1!$B$9:$AL$9</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3004,16 +3057,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AK$12</c:f>
+              <c:f>Sheet1!$B$12:$AL$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -3118,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9126</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,12 +3245,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AK$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3299,6 +3358,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3308,13 +3370,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$AK$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$AL$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="1">
                         <c:v>9</c:v>
                       </c:pt>
@@ -3419,6 +3481,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2663</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2715</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3474,12 +3539,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AK$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3587,6 +3652,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3596,13 +3664,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$14:$AK$14</c15:sqref>
+                          <c15:sqref>Sheet1!$B$14:$AL$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="3">
                         <c:v>34</c:v>
                       </c:pt>
@@ -3701,6 +3769,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>27323</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>29745</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4042,9 +4113,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AK$9</c:f>
+              <c:f>Sheet1!$B$9:$AL$9</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4152,16 +4223,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AK$13</c:f>
+              <c:f>Sheet1!$B$13:$AL$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4266,6 +4340,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,9 +4387,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AK$9</c:f>
+              <c:f>Sheet1!$B$9:$AL$9</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4420,16 +4497,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AK$14</c:f>
+              <c:f>Sheet1!$B$14:$AL$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -4528,6 +4608,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>27323</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4596,12 +4679,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AK$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -4709,6 +4792,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4718,13 +4804,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$AK$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$AL$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -4832,6 +4918,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2824</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2491</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4888,12 +4977,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AK$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5001,6 +5090,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5010,13 +5102,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$AK$11</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$AL$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>291</c:v>
                       </c:pt>
@@ -5124,6 +5216,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>47672</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>45604</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5180,12 +5275,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AK$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5293,6 +5388,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5302,13 +5400,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$AK$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$AL$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="1">
                         <c:v>102</c:v>
                       </c:pt>
@@ -5413,6 +5511,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>9126</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>8752</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5750,9 +5851,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AK$2</c:f>
+              <c:f>Sheet1!$B$2:$AL$2</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -5860,16 +5961,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AK$6</c:f>
+              <c:f>Sheet1!$B$6:$AL$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5974,6 +6078,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,9 +6125,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AK$2</c:f>
+              <c:f>Sheet1!$B$2:$AL$2</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6128,16 +6235,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AK$7</c:f>
+              <c:f>Sheet1!$B$7:$AL$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6236,6 +6346,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6304,12 +6417,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AK$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6417,6 +6530,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6426,13 +6542,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AK$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$AL$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="1">
                         <c:v>26</c:v>
                       </c:pt>
@@ -6537,6 +6653,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>530</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>439</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6593,12 +6712,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AK$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6706,6 +6825,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6715,13 +6837,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$AK$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$AL$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>77</c:v>
                       </c:pt>
@@ -6829,6 +6951,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>406</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6885,12 +7010,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AK$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6998,6 +7123,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>2月24日</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2月25日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7007,13 +7135,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AK$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$AL$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
+                      <c:ptCount val="37"/>
                       <c:pt idx="5">
                         <c:v>87</c:v>
                       </c:pt>
@@ -7106,6 +7234,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>-789</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-374</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9821,92 +9952,94 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AK7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowCellStyle="着色 1">
-  <autoFilter ref="A2:AK7"/>
-  <tableColumns count="37">
-    <tableColumn id="1" name="新增" dataDxfId="39" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="38"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="37"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="36"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="35"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="34"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="33"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="32"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="31"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="30"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="29"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="28"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="27"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="26"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="25"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="24"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="23"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="22"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="21"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="20"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="19"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="18"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="17"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="16"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="15"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="14"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="13"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="12"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="11"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="10"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="9"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="8"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="7"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="6"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="5"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="3"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AL7" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:AL7"/>
+  <tableColumns count="38">
+    <tableColumn id="1" name="新增" dataDxfId="77" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="76"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="75"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="74"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="73"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="72"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="71"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="70"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="69"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="68"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="67"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="66"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="65"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="64"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="63"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="62"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="61"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="60"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="59"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="58"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="57"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="56"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="55"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="54"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="53"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="52"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="51"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="50"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="49"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="48"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="47"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="46"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="45"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="44"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="43"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="42"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="41"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AK14" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" headerRowCellStyle="着色 1">
-  <autoFilter ref="A9:AK14"/>
-  <tableColumns count="37">
-    <tableColumn id="1" name="共计" dataDxfId="75" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="74"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="73"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="72"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="71"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="70"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="69"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="68"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="67"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="66"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="65"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="64"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="63"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="62"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="61"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="60"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="59"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="58"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="57"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="56"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="55"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="54"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="53"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="52"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="51"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="50"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="49"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="48"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="47"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="46"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="45"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="44"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="43"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AL14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="着色 1">
+  <autoFilter ref="A9:AL14"/>
+  <tableColumns count="38">
+    <tableColumn id="1" name="共计" dataDxfId="38" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="37"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="36"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="35"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="34"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="33"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="32"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="31"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="30"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="29"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="28"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="27"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="26"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="25"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="24"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="23"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="22"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="21"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="20"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="19"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="18"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="17"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="16"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="15"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="14"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="13"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="12"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="11"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="10"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="9"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="8"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="7"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="6"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="5"/>
     <tableColumn id="35" name="2月22日" dataDxfId="4"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="2"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="0"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="3"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="2"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10175,10 +10308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10188,10 +10321,10 @@
     <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10303,8 +10436,11 @@
       <c r="AK2" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="AL2" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -10414,8 +10550,11 @@
       <c r="AK3" s="5">
         <v>530</v>
       </c>
+      <c r="AL3" s="5">
+        <v>439</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10527,8 +10666,11 @@
       <c r="AK4" s="5">
         <v>508</v>
       </c>
+      <c r="AL4" s="5">
+        <v>406</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -10630,8 +10772,11 @@
       <c r="AK5" s="5">
         <v>-789</v>
       </c>
+      <c r="AL5" s="5">
+        <v>-374</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -10741,8 +10886,11 @@
       <c r="AK6" s="5">
         <v>71</v>
       </c>
+      <c r="AL6" s="5">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -10848,8 +10996,11 @@
       <c r="AK7" s="5">
         <v>2589</v>
       </c>
+      <c r="AL7" s="5">
+        <v>2422</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10859,7 +11010,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -10971,8 +11122,11 @@
       <c r="AK9" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="AL9" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -11084,8 +11238,11 @@
       <c r="AK10" s="5">
         <v>2824</v>
       </c>
+      <c r="AL10" s="5">
+        <v>2491</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -11197,8 +11354,11 @@
       <c r="AK11" s="5">
         <v>47672</v>
       </c>
+      <c r="AL11" s="5">
+        <v>45604</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -11308,8 +11468,11 @@
       <c r="AK12" s="5">
         <v>9126</v>
       </c>
+      <c r="AL12" s="5">
+        <v>8752</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -11419,8 +11582,11 @@
       <c r="AK13" s="5">
         <v>2663</v>
       </c>
+      <c r="AL13" s="5">
+        <v>2715</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -11525,6 +11691,9 @@
       </c>
       <c r="AK14" s="5">
         <v>27323</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>29745</v>
       </c>
     </row>
   </sheetData>

--- a/病毒走势.xlsx
+++ b/病毒走势.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>全国确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,9 @@
   <si>
     <t>2月25日</t>
   </si>
+  <si>
+    <t>2月26日</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +260,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="82">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -531,6 +534,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -683,9 +694,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AL$2</c:f>
+              <c:f>Sheet1!$B$2:$AM$2</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -796,16 +807,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AL$3</c:f>
+              <c:f>Sheet1!$B$3:$AM$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -913,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,9 +975,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AL$2</c:f>
+              <c:f>Sheet1!$B$2:$AM$2</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1071,16 +1088,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AL$4</c:f>
+              <c:f>Sheet1!$B$4:$AM$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1191,6 +1211,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,9 +1259,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AL$2</c:f>
+              <c:f>Sheet1!$B$2:$AM$2</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1349,16 +1372,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AL$5</c:f>
+              <c:f>Sheet1!$B$5:$AM$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
@@ -1454,6 +1480,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,12 +1551,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1638,6 +1667,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1647,13 +1679,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AL$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AM$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1761,6 +1793,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>29</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1817,12 +1852,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1933,6 +1968,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1942,13 +1980,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$AL$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$AM$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="3">
                         <c:v>6</c:v>
                       </c:pt>
@@ -2050,6 +2088,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2422</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2750</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2391,9 +2432,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AL$9</c:f>
+              <c:f>Sheet1!$B$9:$AM$9</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2504,16 +2545,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AL$10</c:f>
+              <c:f>Sheet1!$B$10:$AM$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -2624,6 +2668,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,9 +2716,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AL$9</c:f>
+              <c:f>Sheet1!$B$9:$AM$9</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2782,16 +2829,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AL$11</c:f>
+              <c:f>Sheet1!$B$11:$AM$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -2902,6 +2952,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,9 +3000,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AL$9</c:f>
+              <c:f>Sheet1!$B$9:$AM$9</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3060,16 +3113,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AL$12</c:f>
+              <c:f>Sheet1!$B$12:$AM$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -3177,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8752</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,12 +3304,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3361,6 +3420,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3370,13 +3432,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$AL$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$AM$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="1">
                         <c:v>9</c:v>
                       </c:pt>
@@ -3484,6 +3546,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2715</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2744</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3539,12 +3604,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3655,6 +3720,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3664,13 +3732,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$14:$AL$14</c15:sqref>
+                          <c15:sqref>Sheet1!$B$14:$AM$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="3">
                         <c:v>34</c:v>
                       </c:pt>
@@ -3772,6 +3840,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>29745</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>32495</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4113,9 +4184,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AL$9</c:f>
+              <c:f>Sheet1!$B$9:$AM$9</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4226,16 +4297,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AL$13</c:f>
+              <c:f>Sheet1!$B$13:$AM$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4343,6 +4417,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4387,9 +4464,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AL$9</c:f>
+              <c:f>Sheet1!$B$9:$AM$9</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4500,16 +4577,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AL$14</c:f>
+              <c:f>Sheet1!$B$14:$AM$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -4611,6 +4691,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>29745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,12 +4762,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -4795,6 +4878,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4804,13 +4890,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$AL$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$AM$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -4921,6 +5007,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2491</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2358</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4977,12 +5066,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5093,6 +5182,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5102,13 +5194,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$AL$11</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$AM$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>291</c:v>
                       </c:pt>
@@ -5219,6 +5311,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>45604</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43258</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5275,12 +5370,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AL$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5391,6 +5486,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5400,13 +5498,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$AL$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$AM$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="1">
                         <c:v>102</c:v>
                       </c:pt>
@@ -5514,6 +5612,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>8752</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>8346</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5851,9 +5952,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AL$2</c:f>
+              <c:f>Sheet1!$B$2:$AM$2</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -5964,16 +6065,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AL$6</c:f>
+              <c:f>Sheet1!$B$6:$AM$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6081,6 +6185,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,9 +6232,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AL$2</c:f>
+              <c:f>Sheet1!$B$2:$AM$2</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6238,16 +6345,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AL$7</c:f>
+              <c:f>Sheet1!$B$7:$AM$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6349,6 +6459,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,12 +6530,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6533,6 +6646,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6542,13 +6658,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AL$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$AM$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="1">
                         <c:v>26</c:v>
                       </c:pt>
@@ -6656,6 +6772,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>439</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>508</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6712,12 +6831,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6828,6 +6947,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6837,13 +6959,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$AL$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$AM$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>77</c:v>
                       </c:pt>
@@ -6954,6 +7076,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>406</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>433</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7010,12 +7135,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AL$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7126,6 +7251,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>2月25日</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2月26日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7135,13 +7263,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AL$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$AM$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="37"/>
+                      <c:ptCount val="38"/>
                       <c:pt idx="5">
                         <c:v>87</c:v>
                       </c:pt>
@@ -7237,6 +7365,9 @@
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>-374</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-406</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9952,56 +10083,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AL7" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowCellStyle="着色 1">
-  <autoFilter ref="A2:AL7"/>
-  <tableColumns count="38">
-    <tableColumn id="1" name="新增" dataDxfId="77" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="76"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="75"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="74"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="73"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="72"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="71"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="70"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="69"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="68"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="67"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="66"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="65"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="64"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="63"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="62"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="61"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="60"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="59"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="58"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="57"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="56"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="55"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="54"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="53"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="52"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="51"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="50"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="49"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="48"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="47"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="46"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="45"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="44"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="43"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="42"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="41"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AM7" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:AM7"/>
+  <tableColumns count="39">
+    <tableColumn id="1" name="新增" dataDxfId="79" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="78"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="77"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="76"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="75"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="74"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="73"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="72"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="71"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="70"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="69"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="68"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="67"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="66"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="65"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="64"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="63"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="62"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="61"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="60"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="59"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="58"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="57"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="56"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="55"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="54"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="53"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="52"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="51"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="50"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="49"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="48"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="47"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="46"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="45"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="44"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="43"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="42"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AL14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="着色 1">
-  <autoFilter ref="A9:AL14"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AM14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="着色 1">
+  <autoFilter ref="A9:AM14"/>
+  <tableColumns count="39">
     <tableColumn id="1" name="共计" dataDxfId="38" dataCellStyle="着色 1"/>
     <tableColumn id="2" name="1月20日" dataDxfId="37"/>
     <tableColumn id="3" name="1月21日" dataDxfId="36"/>
@@ -10039,7 +10171,8 @@
     <tableColumn id="35" name="2月22日" dataDxfId="4"/>
     <tableColumn id="36" name="2月23日" dataDxfId="3"/>
     <tableColumn id="37" name="2月24日" dataDxfId="2"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="0"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="1"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10308,10 +10441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10321,10 +10454,10 @@
     <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10439,8 +10572,11 @@
       <c r="AL2" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="AM2" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -10553,8 +10689,11 @@
       <c r="AL3" s="5">
         <v>439</v>
       </c>
+      <c r="AM3" s="5">
+        <v>508</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10669,8 +10808,11 @@
       <c r="AL4" s="5">
         <v>406</v>
       </c>
+      <c r="AM4" s="5">
+        <v>433</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -10775,8 +10917,11 @@
       <c r="AL5" s="5">
         <v>-374</v>
       </c>
+      <c r="AM5" s="5">
+        <v>-406</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -10889,8 +11034,11 @@
       <c r="AL6" s="5">
         <v>52</v>
       </c>
+      <c r="AM6" s="5">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -10999,8 +11147,11 @@
       <c r="AL7" s="5">
         <v>2422</v>
       </c>
+      <c r="AM7" s="5">
+        <v>2750</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11010,7 +11161,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -11125,8 +11276,11 @@
       <c r="AL9" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="AM9" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -11241,8 +11395,11 @@
       <c r="AL10" s="5">
         <v>2491</v>
       </c>
+      <c r="AM10" s="5">
+        <v>2358</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -11357,8 +11514,11 @@
       <c r="AL11" s="5">
         <v>45604</v>
       </c>
+      <c r="AM11" s="5">
+        <v>43258</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -11471,8 +11631,11 @@
       <c r="AL12" s="5">
         <v>8752</v>
       </c>
+      <c r="AM12" s="5">
+        <v>8346</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -11585,8 +11748,11 @@
       <c r="AL13" s="5">
         <v>2715</v>
       </c>
+      <c r="AM13" s="5">
+        <v>2744</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -11694,6 +11860,9 @@
       </c>
       <c r="AL14" s="5">
         <v>29745</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>32495</v>
       </c>
     </row>
   </sheetData>

--- a/病毒走势.xlsx
+++ b/病毒走势.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>全国确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,6 +183,9 @@
   <si>
     <t>2月26日</t>
   </si>
+  <si>
+    <t>2月27日</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +263,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="84">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -694,9 +705,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AM$2</c:f>
+              <c:f>Sheet1!$B$2:$AN$2</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -810,16 +821,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AM$3</c:f>
+              <c:f>Sheet1!$B$3:$AN$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -930,6 +944,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,9 +992,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AM$2</c:f>
+              <c:f>Sheet1!$B$2:$AN$2</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1091,16 +1108,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AM$4</c:f>
+              <c:f>Sheet1!$B$4:$AN$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1214,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,9 +1282,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AM$2</c:f>
+              <c:f>Sheet1!$B$2:$AN$2</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1375,16 +1398,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AM$5</c:f>
+              <c:f>Sheet1!$B$5:$AN$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
@@ -1483,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-406</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,12 +1580,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1670,6 +1699,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1679,13 +1711,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AM$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AN$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1796,6 +1828,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>44</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1852,12 +1887,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1971,6 +2006,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1980,13 +2018,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$AM$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$AN$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="3">
                         <c:v>6</c:v>
                       </c:pt>
@@ -2091,6 +2129,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2750</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3622</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2432,9 +2473,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AM$9</c:f>
+              <c:f>Sheet1!$B$9:$AN$9</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2548,16 +2589,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AM$10</c:f>
+              <c:f>Sheet1!$B$10:$AN$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -2671,6 +2715,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2358</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,9 +2763,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AM$9</c:f>
+              <c:f>Sheet1!$B$9:$AN$9</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2832,16 +2879,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AM$11</c:f>
+              <c:f>Sheet1!$B$11:$AN$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -2955,6 +3005,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43258</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3000,9 +3053,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AM$9</c:f>
+              <c:f>Sheet1!$B$9:$AN$9</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3116,16 +3169,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AM$12</c:f>
+              <c:f>Sheet1!$B$12:$AN$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -3236,6 +3292,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,12 +3363,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3423,6 +3482,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3432,13 +3494,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$AM$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$AN$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="1">
                         <c:v>9</c:v>
                       </c:pt>
@@ -3549,6 +3611,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2744</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2788</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3604,12 +3669,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3723,6 +3788,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3732,13 +3800,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$14:$AM$14</c15:sqref>
+                          <c15:sqref>Sheet1!$B$14:$AN$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="3">
                         <c:v>34</c:v>
                       </c:pt>
@@ -3843,6 +3911,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>32495</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>36117</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4184,9 +4255,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AM$9</c:f>
+              <c:f>Sheet1!$B$9:$AN$9</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4300,16 +4371,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AM$13</c:f>
+              <c:f>Sheet1!$B$13:$AN$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4420,6 +4494,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,9 +4541,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AM$9</c:f>
+              <c:f>Sheet1!$B$9:$AN$9</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4580,16 +4657,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AM$14</c:f>
+              <c:f>Sheet1!$B$14:$AN$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -4694,6 +4774,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4762,12 +4845,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -4881,6 +4964,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4890,13 +4976,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$AM$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$AN$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -5010,6 +5096,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2358</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2308</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5066,12 +5155,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5185,6 +5274,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5194,13 +5286,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$AM$11</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$AN$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>291</c:v>
                       </c:pt>
@@ -5314,6 +5406,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>43258</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39919</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5370,12 +5465,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AM$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5489,6 +5584,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5498,13 +5596,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$AM$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$AN$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="1">
                         <c:v>102</c:v>
                       </c:pt>
@@ -5615,6 +5713,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>8346</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7952</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5952,9 +6053,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AM$2</c:f>
+              <c:f>Sheet1!$B$2:$AN$2</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6068,16 +6169,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AM$6</c:f>
+              <c:f>Sheet1!$B$6:$AN$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6188,6 +6292,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6232,9 +6339,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AM$2</c:f>
+              <c:f>Sheet1!$B$2:$AN$2</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6348,16 +6455,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AM$7</c:f>
+              <c:f>Sheet1!$B$7:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6462,6 +6572,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6530,12 +6643,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6649,6 +6762,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6658,13 +6774,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AM$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$AN$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="1">
                         <c:v>26</c:v>
                       </c:pt>
@@ -6775,6 +6891,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>452</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6831,12 +6950,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6950,6 +7069,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6959,13 +7081,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$AM$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$AN$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>77</c:v>
                       </c:pt>
@@ -7079,6 +7201,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>433</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>327</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7135,12 +7260,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AM$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7254,6 +7379,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>2月26日</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2月27日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7263,13 +7391,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AM$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$AN$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="38"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="5">
                         <c:v>87</c:v>
                       </c:pt>
@@ -7368,6 +7496,9 @@
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>-406</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-394</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10083,96 +10214,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AM7" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowCellStyle="着色 1">
-  <autoFilter ref="A2:AM7"/>
-  <tableColumns count="39">
-    <tableColumn id="1" name="新增" dataDxfId="79" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="78"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="77"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="76"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="75"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="74"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="73"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="72"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="71"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="70"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="69"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="68"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="67"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="66"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="65"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="64"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="63"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="62"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="61"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="60"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="59"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="58"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="57"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="56"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="55"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="54"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="53"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="52"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="51"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="50"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="49"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="48"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="47"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="46"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="45"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="44"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="43"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="42"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AN7" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:AN7"/>
+  <tableColumns count="40">
+    <tableColumn id="1" name="新增" dataDxfId="81" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="80"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="79"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="78"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="77"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="76"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="75"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="74"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="73"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="72"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="71"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="70"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="69"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="68"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="67"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="66"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="65"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="64"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="63"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="62"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="61"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="60"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="59"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="58"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="57"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="56"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="55"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="54"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="53"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="52"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="51"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="50"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="49"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="48"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="47"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="46"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="45"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="44"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="43"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AM14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="着色 1">
-  <autoFilter ref="A9:AM14"/>
-  <tableColumns count="39">
-    <tableColumn id="1" name="共计" dataDxfId="38" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="37"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="36"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="35"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="34"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="33"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="32"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="31"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="30"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="29"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="28"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="27"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="26"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="25"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="24"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="23"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="22"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="21"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="20"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="19"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="18"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="17"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="16"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="15"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="14"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="13"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="12"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="11"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="10"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="9"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="8"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="7"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="6"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="5"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="4"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="3"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="2"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="1"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AN14" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="着色 1">
+  <autoFilter ref="A9:AN14"/>
+  <tableColumns count="40">
+    <tableColumn id="1" name="共计" dataDxfId="40" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="39"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="38"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="37"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="36"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="35"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="34"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="33"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="32"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="31"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="30"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="29"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="28"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="27"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="26"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="25"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="24"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="23"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="22"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="21"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="20"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="19"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="18"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="17"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="16"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="15"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="14"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="13"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="12"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="11"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="10"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="9"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="8"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="7"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="6"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="5"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="4"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="3"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="2"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10441,10 +10574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10454,10 +10587,10 @@
     <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10575,8 +10708,11 @@
       <c r="AM2" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="AN2" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -10692,8 +10828,11 @@
       <c r="AM3" s="5">
         <v>508</v>
       </c>
+      <c r="AN3" s="5">
+        <v>452</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10811,8 +10950,11 @@
       <c r="AM4" s="5">
         <v>433</v>
       </c>
+      <c r="AN4" s="5">
+        <v>327</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -10920,8 +11062,11 @@
       <c r="AM5" s="5">
         <v>-406</v>
       </c>
+      <c r="AN5" s="5">
+        <v>-394</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11037,8 +11182,11 @@
       <c r="AM6" s="5">
         <v>29</v>
       </c>
+      <c r="AN6" s="5">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -11150,8 +11298,11 @@
       <c r="AM7" s="5">
         <v>2750</v>
       </c>
+      <c r="AN7" s="5">
+        <v>3622</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11161,7 +11312,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -11279,8 +11430,11 @@
       <c r="AM9" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="AN9" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -11398,8 +11552,11 @@
       <c r="AM10" s="5">
         <v>2358</v>
       </c>
+      <c r="AN10" s="5">
+        <v>2308</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -11517,8 +11674,11 @@
       <c r="AM11" s="5">
         <v>43258</v>
       </c>
+      <c r="AN11" s="5">
+        <v>39919</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -11634,8 +11794,11 @@
       <c r="AM12" s="5">
         <v>8346</v>
       </c>
+      <c r="AN12" s="5">
+        <v>7952</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -11751,8 +11914,11 @@
       <c r="AM13" s="5">
         <v>2744</v>
       </c>
+      <c r="AN13" s="5">
+        <v>2788</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -11863,6 +12029,9 @@
       </c>
       <c r="AM14" s="5">
         <v>32495</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>36117</v>
       </c>
     </row>
   </sheetData>

--- a/病毒走势.xlsx
+++ b/病毒走势.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>全国确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,6 +186,21 @@
   <si>
     <t>2月27日</t>
   </si>
+  <si>
+    <t>2月28日</t>
+  </si>
+  <si>
+    <t>3月1日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +278,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="88">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -553,6 +576,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -705,9 +736,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AN$2</c:f>
+              <c:f>Sheet1!$B$2:$AP$2</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -824,16 +855,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AN$3</c:f>
+              <c:f>Sheet1!$B$3:$AP$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -947,6 +984,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,9 +1035,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AN$2</c:f>
+              <c:f>Sheet1!$B$2:$AP$2</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1111,16 +1154,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AN$4</c:f>
+              <c:f>Sheet1!$B$4:$AP$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1237,6 +1286,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,9 +1337,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AN$2</c:f>
+              <c:f>Sheet1!$B$2:$AP$2</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1401,16 +1456,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AN$5</c:f>
+              <c:f>Sheet1!$B$5:$AP$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
@@ -1512,6 +1573,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-394</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-288</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,12 +1647,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AP$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="41"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1702,6 +1769,12 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>3月1日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1711,13 +1784,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AN$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AP$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="41"/>
                       <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1831,6 +1904,12 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1887,12 +1966,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AP$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="41"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -2009,6 +2088,12 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>3月1日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2018,13 +2103,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$AN$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$AP$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="41"/>
                       <c:pt idx="3">
                         <c:v>6</c:v>
                       </c:pt>
@@ -2132,6 +2217,12 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>3622</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2885</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2623</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2473,9 +2564,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AN$9</c:f>
+              <c:f>Sheet1!$B$9:$AP$9</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2592,16 +2683,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AN$10</c:f>
+              <c:f>Sheet1!$B$10:$AP$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -2718,6 +2815,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,9 +2866,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AN$9</c:f>
+              <c:f>Sheet1!$B$9:$AP$9</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2882,16 +2985,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AN$11</c:f>
+              <c:f>Sheet1!$B$11:$AP$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -3008,6 +3117,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37414</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,9 +3168,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AN$9</c:f>
+              <c:f>Sheet1!$B$9:$AP$9</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3172,16 +3287,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AN$12</c:f>
+              <c:f>Sheet1!$B$12:$AP$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -3295,6 +3416,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7952</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,6 +3430,298 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C29E-44F5-A0E4-1C6EF4F32762}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>全国治愈</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:srgbClr val="00B050">
+                  <a:alpha val="14000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1月20日</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1月21日</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1月22日</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1月23日</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1月24日</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1月25日</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1月26日</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1月27日</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1月28日</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1月29日</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1月30日</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1月31日</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2月1日</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2月2日</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2月3日</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2月4日</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2月5日</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2月6日</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2月7日</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2月8日</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2月9日</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2月10日</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2月11日</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2月12日</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2月13日</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2月14日</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2月15日</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2月16日</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2月17日</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2月18日</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2月19日</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2月20日</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2月21日</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2月22日</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2月23日</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2月24日</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2月25日</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2月26日</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3月1日2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$AP$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2649</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4740</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5911</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9419</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10844</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12552</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20659</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27323</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F060-404F-A1D2-818F8331EDD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3363,12 +3782,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AP$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="41"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3485,6 +3904,12 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>3月1日2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3494,13 +3919,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$AN$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$AP$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="41"/>
                       <c:pt idx="1">
                         <c:v>9</c:v>
                       </c:pt>
@@ -3614,6 +4039,12 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2788</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2835</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2870</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3622,306 +4053,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-9C02-464B-AA9B-1AE93F714B77}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$14</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>全国治愈</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="00B050"/>
-                    </a:solidFill>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:glow rad="139700">
-                      <a:srgbClr val="00B050">
-                        <a:alpha val="14000"/>
-                      </a:srgbClr>
-                    </a:glow>
-                  </a:effectLst>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="39"/>
-                      <c:pt idx="0">
-                        <c:v>1月20日</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1月21日</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1月22日</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1月23日</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1月24日</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1月25日</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1月26日</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1月27日</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1月28日</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1月29日</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1月30日</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1月31日</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2月1日</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2月2日</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2月3日</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2月4日</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2月5日</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2月6日</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2月7日</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2月8日</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2月9日</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2月10日</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2月11日</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2月12日</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2月13日</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2月14日</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2月15日</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2月16日</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2月17日</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2月18日</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2月19日</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2月20日</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2月21日</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2月22日</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2月23日</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>2月24日</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>2月25日</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>2月26日</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>2月27日</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$14:$AN$14</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
-                      <c:pt idx="3">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>124</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>171</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>475</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>632</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>892</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1153</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1540</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2050</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2649</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3281</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>3996</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>4740</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>5911</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>6723</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>8096</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>9419</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>10844</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>12552</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>14376</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>16155</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>18264</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>20659</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>22888</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>24734</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>27323</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>29745</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>32495</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>36117</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-F060-404F-A1D2-818F8331EDD7}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4255,9 +4386,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AN$9</c:f>
+              <c:f>Sheet1!$B$9:$AO$9</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4374,16 +4505,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3月1日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AN$13</c:f>
+              <c:f>Sheet1!$B$13:$AO$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4497,6 +4631,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,9 +4678,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AN$9</c:f>
+              <c:f>Sheet1!$B$9:$AO$9</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4660,16 +4797,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3月1日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AN$14</c:f>
+              <c:f>Sheet1!$B$14:$AO$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -4777,6 +4917,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>36117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,12 +4988,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AO$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -4967,6 +5110,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3月1日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4976,13 +5122,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$AN$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$AO$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -5099,6 +5245,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2308</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1418</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5117,7 +5266,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$11</c15:sqref>
@@ -5152,15 +5301,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AO$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5277,22 +5426,25 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3月1日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$AN$11</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$AO$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>291</c:v>
                       </c:pt>
@@ -5409,6 +5561,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>39919</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>37414</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5427,7 +5582,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$12</c15:sqref>
@@ -5462,15 +5617,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AN$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AO$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5587,22 +5742,25 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3月1日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$AN$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$AO$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="1">
                         <c:v>102</c:v>
                       </c:pt>
@@ -5716,6 +5874,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>7952</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7664</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6053,9 +6214,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AN$2</c:f>
+              <c:f>Sheet1!$B$2:$AO$2</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6172,16 +6333,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2月28日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AN$6</c:f>
+              <c:f>Sheet1!$B$6:$AO$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6295,6 +6459,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6339,9 +6506,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AN$2</c:f>
+              <c:f>Sheet1!$B$2:$AO$2</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6458,16 +6625,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2月27日</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2月28日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AN$7</c:f>
+              <c:f>Sheet1!$B$7:$AO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6575,6 +6745,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6643,12 +6816,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AO$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6765,6 +6938,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2月28日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6774,13 +6950,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AN$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$AO$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="1">
                         <c:v>26</c:v>
                       </c:pt>
@@ -6894,6 +7070,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>452</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>248</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6912,7 +7091,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -6947,15 +7126,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AO$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7072,22 +7251,25 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2月28日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$AN$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$AO$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>77</c:v>
                       </c:pt>
@@ -7204,6 +7386,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>327</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>427</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7222,7 +7407,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5</c15:sqref>
@@ -7257,15 +7442,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AN$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AO$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7382,22 +7567,25 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>2月27日</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2月28日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AN$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$AO$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="39"/>
+                      <c:ptCount val="40"/>
                       <c:pt idx="5">
                         <c:v>87</c:v>
                       </c:pt>
@@ -7499,6 +7687,9 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>-394</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-288</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10214,98 +10405,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AN7" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowCellStyle="着色 1">
-  <autoFilter ref="A2:AN7"/>
-  <tableColumns count="40">
-    <tableColumn id="1" name="新增" dataDxfId="81" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="80"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="79"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="78"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="77"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="76"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="75"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="74"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="73"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="72"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="71"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="70"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="69"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="68"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="67"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="66"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="65"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="64"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="63"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="62"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="61"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="60"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="59"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="58"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="57"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="56"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="55"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="54"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="53"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="52"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="51"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="50"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="49"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="48"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="47"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="46"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="45"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="44"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="43"/>
-    <tableColumn id="40" name="2月27日" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AP7" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:AP7"/>
+  <tableColumns count="42">
+    <tableColumn id="1" name="新增" dataDxfId="85" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="84"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="83"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="82"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="81"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="80"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="79"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="78"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="77"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="76"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="75"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="74"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="73"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="72"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="71"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="70"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="69"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="68"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="67"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="66"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="65"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="64"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="63"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="62"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="61"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="60"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="59"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="58"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="57"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="56"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="55"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="54"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="53"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="52"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="51"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="50"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="49"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="48"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="47"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="46"/>
+    <tableColumn id="41" name="2月28日" dataDxfId="45"/>
+    <tableColumn id="42" name="3月1日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AN14" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="着色 1">
-  <autoFilter ref="A9:AN14"/>
-  <tableColumns count="40">
-    <tableColumn id="1" name="共计" dataDxfId="40" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="39"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="38"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="37"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="36"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="35"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="34"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="33"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="32"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="31"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="30"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="29"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="28"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="27"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="26"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="25"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="24"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="23"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="22"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="21"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="20"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="19"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="18"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="17"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="16"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="15"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="14"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="13"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="12"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="11"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="10"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="9"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="8"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="7"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="6"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="5"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="4"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="3"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="2"/>
-    <tableColumn id="40" name="2月27日" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AP14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="着色 1">
+  <autoFilter ref="A9:AP14"/>
+  <tableColumns count="42">
+    <tableColumn id="1" name="共计" dataDxfId="42" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="41"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="40"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="39"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="38"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="37"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="36"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="35"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="34"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="33"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="32"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="31"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="30"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="29"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="28"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="27"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="26"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="25"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="24"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="23"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="22"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="21"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="20"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="19"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="18"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="17"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="16"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="15"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="14"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="13"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="12"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="11"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="10"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="9"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="8"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="7"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="6"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="5"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="4"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="3"/>
+    <tableColumn id="41" name="3月1日" dataDxfId="2"/>
+    <tableColumn id="42" name="3月1日2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10574,10 +10769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10587,10 +10782,10 @@
     <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10711,8 +10906,14 @@
       <c r="AN2" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="AO2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -10831,8 +11032,14 @@
       <c r="AN3" s="5">
         <v>452</v>
       </c>
+      <c r="AO3" s="5">
+        <v>248</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>132</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10953,8 +11160,14 @@
       <c r="AN4" s="5">
         <v>327</v>
       </c>
+      <c r="AO4" s="5">
+        <v>427</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>573</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -11065,8 +11278,14 @@
       <c r="AN5" s="5">
         <v>-394</v>
       </c>
+      <c r="AO5" s="5">
+        <v>-288</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>-299</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11185,8 +11404,14 @@
       <c r="AN6" s="5">
         <v>44</v>
       </c>
+      <c r="AO6" s="5">
+        <v>47</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -11301,8 +11526,14 @@
       <c r="AN7" s="5">
         <v>3622</v>
       </c>
+      <c r="AO7" s="5">
+        <v>2885</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>2623</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11312,7 +11543,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -11433,8 +11664,14 @@
       <c r="AN9" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="AO9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -11555,8 +11792,14 @@
       <c r="AN10" s="5">
         <v>2308</v>
       </c>
+      <c r="AO10" s="5">
+        <v>1418</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>851</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -11677,8 +11920,14 @@
       <c r="AN11" s="5">
         <v>39919</v>
       </c>
+      <c r="AO11" s="5">
+        <v>37414</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>35329</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -11797,8 +12046,14 @@
       <c r="AN12" s="5">
         <v>7952</v>
       </c>
+      <c r="AO12" s="5">
+        <v>7664</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>7365</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -11917,8 +12172,14 @@
       <c r="AN13" s="5">
         <v>2788</v>
       </c>
+      <c r="AO13" s="5">
+        <v>2835</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -12032,6 +12293,12 @@
       </c>
       <c r="AN14" s="5">
         <v>36117</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>39002</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>41625</v>
       </c>
     </row>
   </sheetData>

--- a/病毒走势.xlsx
+++ b/病毒走势.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>全国确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,16 +190,30 @@
     <t>2月28日</t>
   </si>
   <si>
-    <t>3月1日</t>
+    <t>2月29日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3月1日2</t>
+    <t>2月29日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3月1日</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月28日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月2日</t>
+  </si>
+  <si>
+    <t>3月3日</t>
   </si>
 </sst>
 </file>
@@ -278,7 +292,19 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="94">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -584,6 +610,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -736,9 +774,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AP$2</c:f>
+              <c:f>Sheet1!$B$2:$AS$2</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -860,17 +898,26 @@
                   <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AP$3</c:f>
+              <c:f>Sheet1!$B$3:$AS$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -990,6 +1037,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,9 +1091,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AP$2</c:f>
+              <c:f>Sheet1!$B$2:$AS$2</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1159,17 +1215,26 @@
                   <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AP$4</c:f>
+              <c:f>Sheet1!$B$4:$AS$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1292,6 +1357,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,9 +1411,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AP$2</c:f>
+              <c:f>Sheet1!$B$2:$AS$2</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1461,17 +1535,26 @@
                   <c:v>2月28日</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AP$5</c:f>
+              <c:f>Sheet1!$B$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
@@ -1579,6 +1662,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-304</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,12 +1739,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AP$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="41"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1774,7 +1866,16 @@
                         <c:v>2月28日</c:v>
                       </c:pt>
                       <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1784,13 +1885,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AP$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AS$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="41"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
@@ -1910,6 +2011,15 @@
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>38</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1966,12 +2076,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AP$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="41"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -2093,7 +2203,16 @@
                         <c:v>2月28日</c:v>
                       </c:pt>
                       <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2103,13 +2222,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$AP$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$AS$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="41"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="3">
                         <c:v>6</c:v>
                       </c:pt>
@@ -2223,6 +2342,15 @@
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>2623</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2837</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2742</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2652</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2564,9 +2692,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$B$9:$AS$9</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2685,20 +2813,29 @@
                   <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3月1日2</c:v>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AP$10</c:f>
+              <c:f>Sheet1!$B$10:$AS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -2821,6 +2958,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,9 +3012,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$B$9:$AS$9</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2987,20 +3133,29 @@
                   <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3月1日2</c:v>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AP$11</c:f>
+              <c:f>Sheet1!$B$11:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -3123,6 +3278,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>35329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32652</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,9 +3332,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$B$9:$AS$9</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3289,20 +3453,29 @@
                   <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3月1日2</c:v>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AP$12</c:f>
+              <c:f>Sheet1!$B$12:$AS$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -3422,6 +3595,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7110</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6806</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,9 +3648,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$B$9:$AS$9</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3587,20 +3769,29 @@
                   <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3月1日2</c:v>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AP$14</c:f>
+              <c:f>Sheet1!$B$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -3714,6 +3905,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>41625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,12 +3982,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AP$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="41"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -3906,10 +4106,19 @@
                         <c:v>2月27日</c:v>
                       </c:pt>
                       <c:pt idx="39">
+                        <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>3月1日</c:v>
                       </c:pt>
-                      <c:pt idx="40">
-                        <c:v>3月1日2</c:v>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3919,13 +4128,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$AP$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$AS$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="41"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="1">
                         <c:v>9</c:v>
                       </c:pt>
@@ -4045,6 +4254,15 @@
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>2870</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2912</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2981</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4386,9 +4604,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AO$9</c:f>
+              <c:f>Sheet1!$B$9:$AS$9</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4507,17 +4725,29 @@
                   <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AO$13</c:f>
+              <c:f>Sheet1!$B$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4634,6 +4864,18 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4678,9 +4920,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AO$9</c:f>
+              <c:f>Sheet1!$B$9:$AS$9</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4799,17 +5041,29 @@
                   <c:v>2月27日</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AO$14</c:f>
+              <c:f>Sheet1!$B$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -4920,6 +5174,18 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>39002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,12 +5254,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AO$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5112,7 +5378,19 @@
                         <c:v>2月27日</c:v>
                       </c:pt>
                       <c:pt idx="39">
+                        <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5122,13 +5400,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$AO$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$AS$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -5248,6 +5526,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>1418</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>851</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>715</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>587</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>520</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5266,7 +5556,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$11</c15:sqref>
@@ -5301,15 +5591,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AO$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5428,23 +5718,35 @@
                         <c:v>2月27日</c:v>
                       </c:pt>
                       <c:pt idx="39">
+                        <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$AO$11</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$AS$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>291</c:v>
                       </c:pt>
@@ -5564,6 +5866,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>37414</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>35329</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>32652</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>30004</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>27433</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5582,7 +5896,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$12</c15:sqref>
@@ -5617,15 +5931,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AO$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5744,23 +6058,35 @@
                         <c:v>2月27日</c:v>
                       </c:pt>
                       <c:pt idx="39">
+                        <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$AO$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$AS$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="1">
                         <c:v>102</c:v>
                       </c:pt>
@@ -5877,6 +6203,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>7664</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>7365</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>7110</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6806</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>6416</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6214,9 +6552,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AO$2</c:f>
+              <c:f>Sheet1!$B$2:$AS$2</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6336,16 +6674,28 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AO$6</c:f>
+              <c:f>Sheet1!$B$6:$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6462,6 +6812,18 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,9 +6868,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AO$2</c:f>
+              <c:f>Sheet1!$B$2:$AS$2</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6628,16 +6990,28 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2月28日</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2月29日</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3月1日</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3月2日</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3月3日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AO$7</c:f>
+              <c:f>Sheet1!$B$7:$AS$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6748,6 +7122,18 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2885</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2837</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6816,12 +7202,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AO$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6941,6 +7327,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6950,13 +7348,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AO$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$AS$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="1">
                         <c:v>26</c:v>
                       </c:pt>
@@ -7073,6 +7471,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>143</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7091,7 +7501,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -7126,15 +7536,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AO$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7254,22 +7664,34 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$AO$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$AS$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>77</c:v>
                       </c:pt>
@@ -7389,6 +7811,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>427</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>573</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>202</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>119</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7407,7 +7841,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5</c15:sqref>
@@ -7442,15 +7876,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AO$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7570,22 +8004,34 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>2月28日</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2月29日</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>3月1日</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3月2日</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3月3日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AO$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$AS$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="40"/>
+                      <c:ptCount val="44"/>
                       <c:pt idx="5">
                         <c:v>87</c:v>
                       </c:pt>
@@ -7690,6 +8136,18 @@
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>-288</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-299</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-255</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>-304</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>-390</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10279,16 +10737,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>94800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520620</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>110040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10315,8 +10773,8 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>250740</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520620</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>87180</xdr:rowOff>
     </xdr:to>
@@ -10345,8 +10803,8 @@
       <xdr:rowOff>93978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>250740</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520620</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>13518</xdr:rowOff>
     </xdr:to>
@@ -10371,16 +10829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>18600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520620</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10405,102 +10863,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AP7" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86" headerRowCellStyle="着色 1">
-  <autoFilter ref="A2:AP7"/>
-  <tableColumns count="42">
-    <tableColumn id="1" name="新增" dataDxfId="85" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="84"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="83"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="82"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="81"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="80"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="79"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="78"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="77"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="76"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="75"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="74"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="73"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="72"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="71"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="70"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="69"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="68"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="67"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="66"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="65"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="64"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="63"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="62"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="61"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="60"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="59"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="58"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="57"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="56"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="55"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="54"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="53"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="52"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="51"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="50"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="49"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="48"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="47"/>
-    <tableColumn id="40" name="2月27日" dataDxfId="46"/>
-    <tableColumn id="41" name="2月28日" dataDxfId="45"/>
-    <tableColumn id="42" name="3月1日" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AS7" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:AS7"/>
+  <tableColumns count="45">
+    <tableColumn id="1" name="新增" dataDxfId="91" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="90"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="89"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="88"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="87"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="86"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="85"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="84"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="83"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="82"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="81"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="80"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="79"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="78"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="77"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="76"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="75"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="74"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="73"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="72"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="71"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="70"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="69"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="68"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="67"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="66"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="65"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="64"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="63"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="62"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="61"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="60"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="59"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="58"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="57"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="56"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="55"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="54"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="53"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="52"/>
+    <tableColumn id="41" name="2月28日" dataDxfId="51"/>
+    <tableColumn id="42" name="2月29日" dataDxfId="50"/>
+    <tableColumn id="43" name="3月1日" dataDxfId="49"/>
+    <tableColumn id="44" name="3月2日" dataDxfId="48"/>
+    <tableColumn id="45" name="3月3日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AP14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="着色 1">
-  <autoFilter ref="A9:AP14"/>
-  <tableColumns count="42">
-    <tableColumn id="1" name="共计" dataDxfId="42" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="41"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="40"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="39"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="38"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="37"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="36"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="35"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="34"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="33"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="32"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="31"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="30"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="29"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="28"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="27"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="26"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="25"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="24"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="23"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="22"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="21"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="20"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="19"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="18"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="17"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="16"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="15"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="14"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="13"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="12"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="11"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="10"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="9"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="8"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="7"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="6"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="5"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="4"/>
-    <tableColumn id="40" name="2月27日" dataDxfId="3"/>
-    <tableColumn id="41" name="3月1日" dataDxfId="2"/>
-    <tableColumn id="42" name="3月1日2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AS14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="着色 1">
+  <autoFilter ref="A9:AS14"/>
+  <tableColumns count="45">
+    <tableColumn id="1" name="共计" dataDxfId="45" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="44"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="43"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="42"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="41"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="40"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="39"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="38"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="37"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="36"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="35"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="34"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="33"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="32"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="31"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="30"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="29"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="28"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="27"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="26"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="25"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="24"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="23"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="22"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="21"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="20"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="19"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="18"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="17"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="16"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="15"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="14"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="13"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="12"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="11"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="10"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="9"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="8"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="7"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="6"/>
+    <tableColumn id="41" name="2月28日" dataDxfId="5"/>
+    <tableColumn id="42" name="2月29日" dataDxfId="4"/>
+    <tableColumn id="44" name="3月1日" dataDxfId="3"/>
+    <tableColumn id="43" name="3月2日" dataDxfId="2"/>
+    <tableColumn id="45" name="3月3日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10769,10 +11233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10782,10 +11246,10 @@
     <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -10910,10 +11374,19 @@
         <v>51</v>
       </c>
       <c r="AP2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="AR2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -11038,8 +11511,17 @@
       <c r="AP3" s="5">
         <v>132</v>
       </c>
+      <c r="AQ3" s="5">
+        <v>141</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>129</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>143</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -11166,8 +11648,17 @@
       <c r="AP4" s="5">
         <v>573</v>
       </c>
+      <c r="AQ4" s="5">
+        <v>202</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>125</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>119</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -11284,8 +11775,17 @@
       <c r="AP5" s="5">
         <v>-299</v>
       </c>
+      <c r="AQ5" s="5">
+        <v>-255</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>-304</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>-390</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11410,8 +11910,17 @@
       <c r="AP6" s="5">
         <v>35</v>
       </c>
+      <c r="AQ6" s="5">
+        <v>42</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>31</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -11532,8 +12041,17 @@
       <c r="AP7" s="5">
         <v>2623</v>
       </c>
+      <c r="AQ7" s="5">
+        <v>2837</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>2742</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>2652</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11543,7 +12061,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -11665,13 +12183,22 @@
         <v>50</v>
       </c>
       <c r="AO9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AP9" s="4" t="s">
-        <v>53</v>
+      <c r="AQ9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -11798,8 +12325,17 @@
       <c r="AP10" s="5">
         <v>851</v>
       </c>
+      <c r="AQ10" s="5">
+        <v>715</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>587</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>520</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -11926,8 +12462,17 @@
       <c r="AP11" s="5">
         <v>35329</v>
       </c>
+      <c r="AQ11" s="5">
+        <v>32652</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>30004</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>27433</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -12052,8 +12597,17 @@
       <c r="AP12" s="5">
         <v>7365</v>
       </c>
+      <c r="AQ12" s="5">
+        <v>7110</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>6806</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>6416</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -12178,8 +12732,17 @@
       <c r="AP13" s="5">
         <v>2870</v>
       </c>
+      <c r="AQ13" s="5">
+        <v>2912</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>2943</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>2981</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -12299,6 +12862,15 @@
       </c>
       <c r="AP14" s="5">
         <v>41625</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>44462</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>47204</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>49856</v>
       </c>
     </row>
   </sheetData>

--- a/病毒走势.xlsx
+++ b/病毒走势.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>全国确诊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -215,6 +215,15 @@
   <si>
     <t>3月3日</t>
   </si>
+  <si>
+    <t>3月4日</t>
+  </si>
+  <si>
+    <t>3月5日</t>
+  </si>
+  <si>
+    <t>3月6日</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +301,19 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="100">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -622,6 +643,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -774,9 +807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AS$2</c:f>
+              <c:f>Sheet1!$B$2:$AV$2</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -908,16 +941,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AS$3</c:f>
+              <c:f>Sheet1!$B$3:$AV$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1046,6 +1088,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,9 +1142,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AS$2</c:f>
+              <c:f>Sheet1!$B$2:$AV$2</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1225,16 +1276,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AS$4</c:f>
+              <c:f>Sheet1!$B$4:$AV$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1366,6 +1426,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,9 +1480,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AS$2</c:f>
+              <c:f>Sheet1!$B$2:$AV$2</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -1545,16 +1614,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AS$5</c:f>
+              <c:f>Sheet1!$B$5:$AV$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
@@ -1671,6 +1749,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-464</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-215</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,12 +1826,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AV$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -1876,6 +1963,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1885,13 +1981,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$AS$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$AV$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="1">
                         <c:v>3</c:v>
                       </c:pt>
@@ -2020,6 +2116,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>28</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2076,12 +2181,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AV$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -2213,6 +2318,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2222,13 +2336,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$AS$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$AV$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="3">
                         <c:v>6</c:v>
                       </c:pt>
@@ -2351,6 +2465,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>2652</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2189</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1681</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1678</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2692,9 +2815,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AS$9</c:f>
+              <c:f>Sheet1!$B$9:$AV$9</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -2826,16 +2949,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AS$10</c:f>
+              <c:f>Sheet1!$B$10:$AV$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -2967,6 +3099,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,9 +3153,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AS$9</c:f>
+              <c:f>Sheet1!$B$9:$AV$9</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3146,16 +3287,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AS$11</c:f>
+              <c:f>Sheet1!$B$11:$AV$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -3287,6 +3437,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>27433</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25352</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23784</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,9 +3491,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AS$9</c:f>
+              <c:f>Sheet1!$B$9:$AV$9</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3466,16 +3625,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AS$12</c:f>
+              <c:f>Sheet1!$B$12:$AV$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -3604,6 +3772,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>6416</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5737</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3648,9 +3825,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AS$9</c:f>
+              <c:f>Sheet1!$B$9:$AV$9</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -3782,16 +3959,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AS$14</c:f>
+              <c:f>Sheet1!$B$14:$AV$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -3914,6 +4100,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>49856</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53726</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,12 +4177,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AV$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -4119,6 +4314,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4128,13 +4332,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$AS$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$AV$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="1">
                         <c:v>9</c:v>
                       </c:pt>
@@ -4263,6 +4467,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>2981</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3012</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3042</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3070</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4604,9 +4817,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AS$9</c:f>
+              <c:f>Sheet1!$B$9:$AV$9</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -4738,16 +4951,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AS$13</c:f>
+              <c:f>Sheet1!$B$13:$AV$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4876,6 +5098,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3042</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4920,9 +5151,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$AS$9</c:f>
+              <c:f>Sheet1!$B$9:$AV$9</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -5054,16 +5285,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AS$14</c:f>
+              <c:f>Sheet1!$B$14:$AV$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
@@ -5186,6 +5426,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>49856</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53726</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,12 +5503,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AV$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5391,6 +5640,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5400,13 +5658,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$AS$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$AV$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -5538,6 +5796,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>520</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>522</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>502</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5594,12 +5861,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AV$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -5731,6 +5998,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5740,13 +6016,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$AS$11</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$AV$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>291</c:v>
                       </c:pt>
@@ -5878,6 +6154,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>27433</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>25352</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>23784</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>22177</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5934,12 +6219,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$AS$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$AV$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -6071,6 +6356,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6080,13 +6374,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$AS$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$AV$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="1">
                         <c:v>102</c:v>
                       </c:pt>
@@ -6215,6 +6509,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>6416</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>5952</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>5737</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>5489</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6552,9 +6855,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AS$2</c:f>
+              <c:f>Sheet1!$B$2:$AV$2</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -6686,16 +6989,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AS$6</c:f>
+              <c:f>Sheet1!$B$6:$AV$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6824,6 +7136,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,9 +7189,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$AS$2</c:f>
+              <c:f>Sheet1!$B$2:$AV$2</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1月20日</c:v>
                 </c:pt>
@@ -7002,16 +7323,25 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3月3日</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3月4日</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3月5日</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3月6日</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AS$7</c:f>
+              <c:f>Sheet1!$B$7:$AV$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7134,6 +7464,15 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,12 +7541,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AV$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7339,6 +7678,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7348,13 +7696,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$AS$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$AV$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="1">
                         <c:v>26</c:v>
                       </c:pt>
@@ -7483,6 +7831,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>99</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7539,12 +7896,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AV$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -7676,6 +8033,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7685,13 +8051,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$AS$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$AV$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>77</c:v>
                       </c:pt>
@@ -7823,6 +8189,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>99</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7879,12 +8254,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$AS$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$AV$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="0">
                         <c:v>1月20日</c:v>
                       </c:pt>
@@ -8016,6 +8391,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>3月3日</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3月4日</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3月5日</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3月6日</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -8025,13 +8409,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$AS$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$AV$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="44"/>
+                      <c:ptCount val="47"/>
                       <c:pt idx="5">
                         <c:v>87</c:v>
                       </c:pt>
@@ -8148,6 +8532,15 @@
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>-390</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-464</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-215</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-248</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10863,108 +11256,114 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AS7" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" headerRowCellStyle="着色 1">
-  <autoFilter ref="A2:AS7"/>
-  <tableColumns count="45">
-    <tableColumn id="1" name="新增" dataDxfId="91" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="90"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="89"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="88"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="87"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="86"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="85"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="84"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="83"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="82"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="81"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="80"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="79"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="78"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="77"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="76"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="75"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="74"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="73"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="72"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="71"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="70"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="69"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="68"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="67"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="66"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="65"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="64"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="63"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="62"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="61"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="60"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="59"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="58"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="57"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="56"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="55"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="54"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="53"/>
-    <tableColumn id="40" name="2月27日" dataDxfId="52"/>
-    <tableColumn id="41" name="2月28日" dataDxfId="51"/>
-    <tableColumn id="42" name="2月29日" dataDxfId="50"/>
-    <tableColumn id="43" name="3月1日" dataDxfId="49"/>
-    <tableColumn id="44" name="3月2日" dataDxfId="48"/>
-    <tableColumn id="45" name="3月3日" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A2:AV7" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" headerRowCellStyle="着色 1">
+  <autoFilter ref="A2:AV7"/>
+  <tableColumns count="48">
+    <tableColumn id="1" name="新增" dataDxfId="97" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="96"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="95"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="94"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="93"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="92"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="91"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="90"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="89"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="88"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="87"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="86"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="85"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="84"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="83"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="82"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="81"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="80"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="79"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="78"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="77"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="76"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="75"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="74"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="73"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="72"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="71"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="70"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="69"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="68"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="67"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="66"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="65"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="64"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="63"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="62"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="61"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="60"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="59"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="58"/>
+    <tableColumn id="41" name="2月28日" dataDxfId="57"/>
+    <tableColumn id="42" name="2月29日" dataDxfId="56"/>
+    <tableColumn id="43" name="3月1日" dataDxfId="55"/>
+    <tableColumn id="44" name="3月2日" dataDxfId="54"/>
+    <tableColumn id="45" name="3月3日" dataDxfId="53"/>
+    <tableColumn id="46" name="3月4日" dataDxfId="52"/>
+    <tableColumn id="47" name="3月5日" dataDxfId="51"/>
+    <tableColumn id="48" name="3月6日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AS14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="着色 1">
-  <autoFilter ref="A9:AS14"/>
-  <tableColumns count="45">
-    <tableColumn id="1" name="共计" dataDxfId="45" dataCellStyle="着色 1"/>
-    <tableColumn id="2" name="1月20日" dataDxfId="44"/>
-    <tableColumn id="3" name="1月21日" dataDxfId="43"/>
-    <tableColumn id="4" name="1月22日" dataDxfId="42"/>
-    <tableColumn id="5" name="1月23日" dataDxfId="41"/>
-    <tableColumn id="6" name="1月24日" dataDxfId="40"/>
-    <tableColumn id="7" name="1月25日" dataDxfId="39"/>
-    <tableColumn id="8" name="1月26日" dataDxfId="38"/>
-    <tableColumn id="9" name="1月27日" dataDxfId="37"/>
-    <tableColumn id="10" name="1月28日" dataDxfId="36"/>
-    <tableColumn id="11" name="1月29日" dataDxfId="35"/>
-    <tableColumn id="12" name="1月30日" dataDxfId="34"/>
-    <tableColumn id="13" name="1月31日" dataDxfId="33"/>
-    <tableColumn id="14" name="2月1日" dataDxfId="32"/>
-    <tableColumn id="15" name="2月2日" dataDxfId="31"/>
-    <tableColumn id="16" name="2月3日" dataDxfId="30"/>
-    <tableColumn id="17" name="2月4日" dataDxfId="29"/>
-    <tableColumn id="18" name="2月5日" dataDxfId="28"/>
-    <tableColumn id="19" name="2月6日" dataDxfId="27"/>
-    <tableColumn id="20" name="2月7日" dataDxfId="26"/>
-    <tableColumn id="21" name="2月8日" dataDxfId="25"/>
-    <tableColumn id="22" name="2月9日" dataDxfId="24"/>
-    <tableColumn id="23" name="2月10日" dataDxfId="23"/>
-    <tableColumn id="24" name="2月11日" dataDxfId="22"/>
-    <tableColumn id="25" name="2月12日" dataDxfId="21"/>
-    <tableColumn id="26" name="2月13日" dataDxfId="20"/>
-    <tableColumn id="27" name="2月14日" dataDxfId="19"/>
-    <tableColumn id="28" name="2月15日" dataDxfId="18"/>
-    <tableColumn id="29" name="2月16日" dataDxfId="17"/>
-    <tableColumn id="30" name="2月17日" dataDxfId="16"/>
-    <tableColumn id="31" name="2月18日" dataDxfId="15"/>
-    <tableColumn id="32" name="2月19日" dataDxfId="14"/>
-    <tableColumn id="33" name="2月20日" dataDxfId="13"/>
-    <tableColumn id="34" name="2月21日" dataDxfId="12"/>
-    <tableColumn id="35" name="2月22日" dataDxfId="11"/>
-    <tableColumn id="36" name="2月23日" dataDxfId="10"/>
-    <tableColumn id="37" name="2月24日" dataDxfId="9"/>
-    <tableColumn id="38" name="2月25日" dataDxfId="8"/>
-    <tableColumn id="39" name="2月26日" dataDxfId="7"/>
-    <tableColumn id="40" name="2月27日" dataDxfId="6"/>
-    <tableColumn id="41" name="2月28日" dataDxfId="5"/>
-    <tableColumn id="42" name="2月29日" dataDxfId="4"/>
-    <tableColumn id="44" name="3月1日" dataDxfId="3"/>
-    <tableColumn id="43" name="3月2日" dataDxfId="2"/>
-    <tableColumn id="45" name="3月3日" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A9:AV14" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowCellStyle="着色 1">
+  <autoFilter ref="A9:AV14"/>
+  <tableColumns count="48">
+    <tableColumn id="1" name="共计" dataDxfId="48" dataCellStyle="着色 1"/>
+    <tableColumn id="2" name="1月20日" dataDxfId="47"/>
+    <tableColumn id="3" name="1月21日" dataDxfId="46"/>
+    <tableColumn id="4" name="1月22日" dataDxfId="45"/>
+    <tableColumn id="5" name="1月23日" dataDxfId="44"/>
+    <tableColumn id="6" name="1月24日" dataDxfId="43"/>
+    <tableColumn id="7" name="1月25日" dataDxfId="42"/>
+    <tableColumn id="8" name="1月26日" dataDxfId="41"/>
+    <tableColumn id="9" name="1月27日" dataDxfId="40"/>
+    <tableColumn id="10" name="1月28日" dataDxfId="39"/>
+    <tableColumn id="11" name="1月29日" dataDxfId="38"/>
+    <tableColumn id="12" name="1月30日" dataDxfId="37"/>
+    <tableColumn id="13" name="1月31日" dataDxfId="36"/>
+    <tableColumn id="14" name="2月1日" dataDxfId="35"/>
+    <tableColumn id="15" name="2月2日" dataDxfId="34"/>
+    <tableColumn id="16" name="2月3日" dataDxfId="33"/>
+    <tableColumn id="17" name="2月4日" dataDxfId="32"/>
+    <tableColumn id="18" name="2月5日" dataDxfId="31"/>
+    <tableColumn id="19" name="2月6日" dataDxfId="30"/>
+    <tableColumn id="20" name="2月7日" dataDxfId="29"/>
+    <tableColumn id="21" name="2月8日" dataDxfId="28"/>
+    <tableColumn id="22" name="2月9日" dataDxfId="27"/>
+    <tableColumn id="23" name="2月10日" dataDxfId="26"/>
+    <tableColumn id="24" name="2月11日" dataDxfId="25"/>
+    <tableColumn id="25" name="2月12日" dataDxfId="24"/>
+    <tableColumn id="26" name="2月13日" dataDxfId="23"/>
+    <tableColumn id="27" name="2月14日" dataDxfId="22"/>
+    <tableColumn id="28" name="2月15日" dataDxfId="21"/>
+    <tableColumn id="29" name="2月16日" dataDxfId="20"/>
+    <tableColumn id="30" name="2月17日" dataDxfId="19"/>
+    <tableColumn id="31" name="2月18日" dataDxfId="18"/>
+    <tableColumn id="32" name="2月19日" dataDxfId="17"/>
+    <tableColumn id="33" name="2月20日" dataDxfId="16"/>
+    <tableColumn id="34" name="2月21日" dataDxfId="15"/>
+    <tableColumn id="35" name="2月22日" dataDxfId="14"/>
+    <tableColumn id="36" name="2月23日" dataDxfId="13"/>
+    <tableColumn id="37" name="2月24日" dataDxfId="12"/>
+    <tableColumn id="38" name="2月25日" dataDxfId="11"/>
+    <tableColumn id="39" name="2月26日" dataDxfId="10"/>
+    <tableColumn id="40" name="2月27日" dataDxfId="9"/>
+    <tableColumn id="41" name="2月28日" dataDxfId="8"/>
+    <tableColumn id="42" name="2月29日" dataDxfId="7"/>
+    <tableColumn id="44" name="3月1日" dataDxfId="6"/>
+    <tableColumn id="43" name="3月2日" dataDxfId="5"/>
+    <tableColumn id="45" name="3月3日" dataDxfId="4"/>
+    <tableColumn id="46" name="3月4日" dataDxfId="3"/>
+    <tableColumn id="47" name="3月5日" dataDxfId="2"/>
+    <tableColumn id="48" name="3月6日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11233,10 +11632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS14"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11246,10 +11645,10 @@
     <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -11385,8 +11784,17 @@
       <c r="AS2" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="AT2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -11520,8 +11928,17 @@
       <c r="AS3" s="5">
         <v>143</v>
       </c>
+      <c r="AT3" s="5">
+        <v>143</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -11657,8 +12074,17 @@
       <c r="AS4" s="5">
         <v>119</v>
       </c>
+      <c r="AT4" s="5">
+        <v>139</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>143</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -11784,8 +12210,17 @@
       <c r="AS5" s="5">
         <v>-390</v>
       </c>
+      <c r="AT5" s="5">
+        <v>-464</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>-215</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>-248</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -11919,8 +12354,17 @@
       <c r="AS6" s="5">
         <v>38</v>
       </c>
+      <c r="AT6" s="5">
+        <v>31</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>30</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -12050,8 +12494,17 @@
       <c r="AS7" s="5">
         <v>2652</v>
       </c>
+      <c r="AT7" s="5">
+        <v>2189</v>
+      </c>
+      <c r="AU7" s="5">
+        <v>1681</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>1678</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -12061,7 +12514,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -12197,8 +12650,17 @@
       <c r="AS9" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="AT9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -12334,8 +12796,17 @@
       <c r="AS10" s="5">
         <v>520</v>
       </c>
+      <c r="AT10" s="5">
+        <v>522</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>482</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>502</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -12471,8 +12942,17 @@
       <c r="AS11" s="5">
         <v>27433</v>
       </c>
+      <c r="AT11" s="5">
+        <v>25352</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>23784</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>22177</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -12606,8 +13086,17 @@
       <c r="AS12" s="5">
         <v>6416</v>
       </c>
+      <c r="AT12" s="5">
+        <v>5952</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>5737</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>5489</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -12741,8 +13230,17 @@
       <c r="AS13" s="5">
         <v>2981</v>
       </c>
+      <c r="AT13" s="5">
+        <v>3012</v>
+      </c>
+      <c r="AU13" s="5">
+        <v>3042</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>3070</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -12871,6 +13369,15 @@
       </c>
       <c r="AS14" s="5">
         <v>49856</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>52045</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>53726</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>55404</v>
       </c>
     </row>
   </sheetData>
